--- a/biology/Zoologie/Cigogne_orientale/Cigogne_orientale.xlsx
+++ b/biology/Zoologie/Cigogne_orientale/Cigogne_orientale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ciconia boyciana
 La Cigogne orientale (Ciconia boyciana), également appelée Cigogne à bec noir, Cigogne blanche de Corée ou Cigogne blanche du Japon, est une grande espèce d'oiseaux asiatiques appartenant à la famille des Ciconiidae.
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Cigogne orientale ressemble beaucoup à la Cigogne blanche, mais est en moyenne plus grande : elle mesure de 100 à 129 cm de long du bout du bec au bout de la queue, pour une hauteur de 110 à 150 cm, un poids de 2,8 à 5,9 kg et une envergure de 2,22 m[1],[2]. Elle est également plus pâle, son œil à l'iris blanchâtre est bordé de peau rouge, et son bec est noir et plus massif. Il n'y a pas de dimorphisme sexuel apparent, mais la femelle est légèrement plus petite que le mâle. Les jeunes sont blancs, avec le bec orange.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Cigogne orientale ressemble beaucoup à la Cigogne blanche, mais est en moyenne plus grande : elle mesure de 100 à 129 cm de long du bout du bec au bout de la queue, pour une hauteur de 110 à 150 cm, un poids de 2,8 à 5,9 kg et une envergure de 2,22 m,. Elle est également plus pâle, son œil à l'iris blanchâtre est bordé de peau rouge, et son bec est noir et plus massif. Il n'y a pas de dimorphisme sexuel apparent, mais la femelle est légèrement plus petite que le mâle. Les jeunes sont blancs, avec le bec orange.
 </t>
         </is>
       </c>
@@ -545,10 +559,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alimentation
-C'est une espèce carnivore, se nourrissant de poissons, de grenouilles, de petits oiseaux et reptiles ainsi que de rongeurs.
-Reproduction
-La ponte compte de deux à six œufs.
+          <t>Alimentation</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une espèce carnivore, se nourrissant de poissons, de grenouilles, de petits oiseaux et reptiles ainsi que de rongeurs.
 </t>
         </is>
       </c>
@@ -574,13 +591,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Répartition et habitat</t>
+          <t>Écologie et comportement</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cette espèce vit dans l'Est de l'Asie. Elle niche dans les bassins de l'Amour et de l'Oussouri, le long de la frontière sino-russe. En hiver elle descend jusqu'à Taïwan et Hong Kong, et en petit nombre en Corée et même au Japon[3]. Plus rarement elle vole jusqu'aux Philippines, dans le Nord-Est de l'Inde, le Bangladesh et la Birmanie[3].
-La migration vers le sud commence en septembre, et les oiseaux reviennent dans les zones de nidification en mars.
+          <t>Reproduction</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La ponte compte de deux à six œufs.
 </t>
         </is>
       </c>
@@ -606,15 +628,15 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Dénominations et systématique</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Taxinomie
-Sa dénomination spécifique, boyciana, commémore Robert Henri Boyce (1834-1909), employé de la fonction publique de Shanghai. Aucune sous-espèce n'est distinguée[4].
-Phylogénie
-Les espèces les plus proches de la Cigogne orientale sont la Cigogne blanche (Ciconia ciconia), dont elle était autrefois considérée comme une sous-espèce[6], et la Cigogne maguari (C. maguari), d'Amérique du Sud. Ces relations au sein du genre Ciconia sont à la fois appuyées par des similitudes comportementales et par des études biochimique, avec l'analyse des séquences du gène du cytochrome b mitochondrial et par l'hybridation ADN[7].
+          <t>Répartition et habitat</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce vit dans l'Est de l'Asie. Elle niche dans les bassins de l'Amour et de l'Oussouri, le long de la frontière sino-russe. En hiver elle descend jusqu'à Taïwan et Hong Kong, et en petit nombre en Corée et même au Japon. Plus rarement elle vole jusqu'aux Philippines, dans le Nord-Est de l'Inde, le Bangladesh et la Birmanie.
+La migration vers le sud commence en septembre, et les oiseaux reviennent dans les zones de nidification en mars.
 </t>
         </is>
       </c>
@@ -640,12 +662,88 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Dénominations et systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa dénomination spécifique, boyciana, commémore Robert Henri Boyce (1834-1909), employé de la fonction publique de Shanghai. Aucune sous-espèce n'est distinguée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cigogne_orientale</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cigogne_orientale</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Dénominations et systématique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Phylogénie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces les plus proches de la Cigogne orientale sont la Cigogne blanche (Ciconia ciconia), dont elle était autrefois considérée comme une sous-espèce, et la Cigogne maguari (C. maguari), d'Amérique du Sud. Ces relations au sein du genre Ciconia sont à la fois appuyées par des similitudes comportementales et par des études biochimique, avec l'analyse des séquences du gène du cytochrome b mitochondrial et par l'hybridation ADN.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Cigogne_orientale</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cigogne_orientale</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Menaces et conservation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Cigogne orientale est considérée par l'Union internationale pour la conservation de la nature comme « espèce en danger »[8]. BirdLife International estime que la population mondiale compte 1 000 à 2 500 individus adultes, se répartissant sur une aire extrêmement vaste de 474 000 km2, et avec des effectifs déclinant[3].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Cigogne orientale est considérée par l'Union internationale pour la conservation de la nature comme « espèce en danger ». BirdLife International estime que la population mondiale compte 1 000 à 2 500 individus adultes, se répartissant sur une aire extrêmement vaste de 474 000 km2, et avec des effectifs déclinant.
 </t>
         </is>
       </c>
